--- a/data/data_raw/eurostat/AT_cars_road_eqr_carpda.xlsx
+++ b/data/data_raw/eurostat/AT_cars_road_eqr_carpda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Petroleum products [PET]</t>
+          <t>Total [TOTAL]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -535,37 +535,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>136689</v>
+        <v>319035</v>
       </c>
       <c r="G2" t="n">
-        <v>128670</v>
+        <v>303318</v>
       </c>
       <c r="H2" t="n">
-        <v>125656</v>
+        <v>308555</v>
       </c>
       <c r="I2" t="n">
-        <v>136148</v>
+        <v>329604</v>
       </c>
       <c r="J2" t="n">
-        <v>171862</v>
+        <v>353320</v>
       </c>
       <c r="K2" t="n">
-        <v>192503</v>
+        <v>341068</v>
       </c>
       <c r="L2" t="n">
-        <v>189054</v>
+        <v>329363</v>
       </c>
       <c r="M2" t="n">
-        <v>133151</v>
+        <v>248740</v>
       </c>
       <c r="N2" t="n">
-        <v>134529</v>
+        <v>239803</v>
       </c>
       <c r="O2" t="n">
-        <v>119271</v>
+        <v>215050</v>
       </c>
       <c r="P2" t="n">
-        <v>130321</v>
+        <v>239150</v>
       </c>
     </row>
     <row r="3">
@@ -584,7 +584,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Liquefied petroleum gases (LPG) [LPG]</t>
+          <t>Petroleum products [PET]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -593,35 +593,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>136689</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>128670</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>125656</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>136148</v>
+      </c>
+      <c r="J3" t="n">
+        <v>171862</v>
+      </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>192503</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>189054</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>133151</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>134529</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>119271</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>130321</v>
       </c>
     </row>
     <row r="4">
@@ -640,7 +642,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Diesel [DIE]</t>
+          <t>Liquefied petroleum gases (LPG) [LPG]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -649,37 +651,35 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>181061</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>172574</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>180510</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>189139</v>
-      </c>
-      <c r="J4" t="n">
-        <v>175590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>141159</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>130468</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>99196</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>71808</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>61537</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>61187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -698,7 +698,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Natural gas [GAS]</t>
+          <t>Diesel [DIE]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -707,37 +707,37 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>455</v>
+        <v>181061</v>
       </c>
       <c r="G5" t="n">
-        <v>279</v>
+        <v>172574</v>
       </c>
       <c r="H5" t="n">
-        <v>167</v>
+        <v>180510</v>
       </c>
       <c r="I5" t="n">
-        <v>119</v>
+        <v>189139</v>
       </c>
       <c r="J5" t="n">
-        <v>114</v>
+        <v>175590</v>
       </c>
       <c r="K5" t="n">
-        <v>110</v>
+        <v>141159</v>
       </c>
       <c r="L5" t="n">
-        <v>421</v>
+        <v>130468</v>
       </c>
       <c r="M5" t="n">
-        <v>386</v>
+        <v>99196</v>
       </c>
       <c r="N5" t="n">
-        <v>70</v>
+        <v>71808</v>
       </c>
       <c r="O5" t="n">
-        <v>51</v>
+        <v>61537</v>
       </c>
       <c r="P5" t="n">
-        <v>6</v>
+        <v>61187</v>
       </c>
     </row>
     <row r="6">
@@ -756,7 +756,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Electricity [ELC]</t>
+          <t>Natural gas [GAS]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -765,37 +765,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>654</v>
+        <v>455</v>
       </c>
       <c r="G6" t="n">
-        <v>1281</v>
+        <v>279</v>
       </c>
       <c r="H6" t="n">
-        <v>1677</v>
+        <v>167</v>
       </c>
       <c r="I6" t="n">
-        <v>3826</v>
+        <v>119</v>
       </c>
       <c r="J6" t="n">
-        <v>5433</v>
+        <v>114</v>
       </c>
       <c r="K6" t="n">
-        <v>6757</v>
+        <v>110</v>
       </c>
       <c r="L6" t="n">
-        <v>9242</v>
+        <v>421</v>
       </c>
       <c r="M6" t="n">
-        <v>15972</v>
+        <v>386</v>
       </c>
       <c r="N6" t="n">
-        <v>33366</v>
+        <v>70</v>
       </c>
       <c r="O6" t="n">
-        <v>34165</v>
+        <v>51</v>
       </c>
       <c r="P6" t="n">
-        <v>47621</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -814,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Alternative energy [ALT]</t>
+          <t>Electricity [ELC]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -823,37 +823,37 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1285</v>
+        <v>654</v>
       </c>
       <c r="G7" t="n">
-        <v>2074</v>
+        <v>1281</v>
       </c>
       <c r="H7" t="n">
-        <v>2389</v>
+        <v>1677</v>
       </c>
       <c r="I7" t="n">
-        <v>4317</v>
+        <v>3826</v>
       </c>
       <c r="J7" t="n">
-        <v>5868</v>
+        <v>5433</v>
       </c>
       <c r="K7" t="n">
-        <v>7406</v>
+        <v>6757</v>
       </c>
       <c r="L7" t="n">
-        <v>9841</v>
+        <v>9242</v>
       </c>
       <c r="M7" t="n">
-        <v>16393</v>
+        <v>15972</v>
       </c>
       <c r="N7" t="n">
-        <v>33466</v>
+        <v>33366</v>
       </c>
       <c r="O7" t="n">
-        <v>34242</v>
+        <v>34165</v>
       </c>
       <c r="P7" t="n">
-        <v>47642</v>
+        <v>47621</v>
       </c>
     </row>
     <row r="8">
@@ -872,7 +872,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Petrol (excluding hybrids) [PET_X_HYB]</t>
+          <t>Alternative energy [ALT]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -881,37 +881,37 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>134276</v>
+        <v>1285</v>
       </c>
       <c r="G8" t="n">
-        <v>126503</v>
+        <v>2074</v>
       </c>
       <c r="H8" t="n">
-        <v>122832</v>
+        <v>2389</v>
       </c>
       <c r="I8" t="n">
-        <v>131756</v>
+        <v>4317</v>
       </c>
       <c r="J8" t="n">
-        <v>163701</v>
+        <v>5868</v>
       </c>
       <c r="K8" t="n">
-        <v>184150</v>
+        <v>7406</v>
       </c>
       <c r="L8" t="n">
-        <v>176706</v>
+        <v>9841</v>
       </c>
       <c r="M8" t="n">
-        <v>107771</v>
+        <v>16393</v>
       </c>
       <c r="N8" t="n">
-        <v>91478</v>
+        <v>33466</v>
       </c>
       <c r="O8" t="n">
-        <v>78567</v>
+        <v>34242</v>
       </c>
       <c r="P8" t="n">
-        <v>77354</v>
+        <v>47642</v>
       </c>
     </row>
     <row r="9">
@@ -930,7 +930,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hybrid electric-petrol [ELC_PET_HYB]</t>
+          <t>Petrol (excluding hybrids) [PET_X_HYB]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -939,37 +939,37 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2259</v>
+        <v>134276</v>
       </c>
       <c r="G9" t="n">
-        <v>1836</v>
+        <v>126503</v>
       </c>
       <c r="H9" t="n">
-        <v>1893</v>
+        <v>122832</v>
       </c>
       <c r="I9" t="n">
-        <v>3305</v>
+        <v>131756</v>
       </c>
       <c r="J9" t="n">
-        <v>6529</v>
+        <v>163701</v>
       </c>
       <c r="K9" t="n">
-        <v>6135</v>
+        <v>184150</v>
       </c>
       <c r="L9" t="n">
-        <v>10237</v>
+        <v>176706</v>
       </c>
       <c r="M9" t="n">
-        <v>18178</v>
+        <v>107771</v>
       </c>
       <c r="N9" t="n">
-        <v>29451</v>
+        <v>91478</v>
       </c>
       <c r="O9" t="n">
-        <v>28238</v>
+        <v>78567</v>
       </c>
       <c r="P9" t="n">
-        <v>36705</v>
+        <v>77354</v>
       </c>
     </row>
     <row r="10">
@@ -988,7 +988,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Plug-in hybrid petrol-electric [ELC_PET_PI]</t>
+          <t>Hybrid electric-petrol [ELC_PET_HYB]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -997,37 +997,37 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>154</v>
+        <v>2259</v>
       </c>
       <c r="G10" t="n">
-        <v>331</v>
+        <v>1836</v>
       </c>
       <c r="H10" t="n">
-        <v>931</v>
+        <v>1893</v>
       </c>
       <c r="I10" t="n">
-        <v>1087</v>
+        <v>3305</v>
       </c>
       <c r="J10" t="n">
-        <v>1632</v>
+        <v>6529</v>
       </c>
       <c r="K10" t="n">
-        <v>2218</v>
+        <v>6135</v>
       </c>
       <c r="L10" t="n">
-        <v>2111</v>
+        <v>10237</v>
       </c>
       <c r="M10" t="n">
-        <v>7202</v>
+        <v>18178</v>
       </c>
       <c r="N10" t="n">
-        <v>13600</v>
+        <v>29451</v>
       </c>
       <c r="O10" t="n">
-        <v>12466</v>
+        <v>28238</v>
       </c>
       <c r="P10" t="n">
-        <v>16262</v>
+        <v>36705</v>
       </c>
     </row>
     <row r="11">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Diesel (excluding hybrids) [DIE_X_HYB]</t>
+          <t>Plug-in hybrid petrol-electric [ELC_PET_PI]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1055,37 +1055,37 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>180901</v>
+        <v>154</v>
       </c>
       <c r="G11" t="n">
-        <v>172381</v>
+        <v>331</v>
       </c>
       <c r="H11" t="n">
-        <v>179822</v>
+        <v>931</v>
       </c>
       <c r="I11" t="n">
-        <v>188820</v>
+        <v>1087</v>
       </c>
       <c r="J11" t="n">
-        <v>175458</v>
+        <v>1632</v>
       </c>
       <c r="K11" t="n">
-        <v>140111</v>
+        <v>2218</v>
       </c>
       <c r="L11" t="n">
-        <v>126311</v>
+        <v>2111</v>
       </c>
       <c r="M11" t="n">
-        <v>90909</v>
+        <v>7202</v>
       </c>
       <c r="N11" t="n">
-        <v>58263</v>
+        <v>13600</v>
       </c>
       <c r="O11" t="n">
-        <v>48115</v>
+        <v>12466</v>
       </c>
       <c r="P11" t="n">
-        <v>46568</v>
+        <v>16262</v>
       </c>
     </row>
     <row r="12">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hybrid diesel-electric [ELC_DIE_HYB]</t>
+          <t>Diesel (excluding hybrids) [DIE_X_HYB]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1113,37 +1113,37 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>130</v>
+        <v>180901</v>
       </c>
       <c r="G12" t="n">
-        <v>90</v>
+        <v>172381</v>
       </c>
       <c r="H12" t="n">
-        <v>518</v>
+        <v>179822</v>
       </c>
       <c r="I12" t="n">
-        <v>169</v>
+        <v>188820</v>
       </c>
       <c r="J12" t="n">
-        <v>43</v>
+        <v>175458</v>
       </c>
       <c r="K12" t="n">
-        <v>1008</v>
+        <v>140111</v>
       </c>
       <c r="L12" t="n">
-        <v>4112</v>
+        <v>126311</v>
       </c>
       <c r="M12" t="n">
-        <v>7848</v>
+        <v>90909</v>
       </c>
       <c r="N12" t="n">
-        <v>12519</v>
+        <v>58263</v>
       </c>
       <c r="O12" t="n">
-        <v>12620</v>
+        <v>48115</v>
       </c>
       <c r="P12" t="n">
-        <v>13925</v>
+        <v>46568</v>
       </c>
     </row>
     <row r="13">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Plug-in hybrid diesel-electric [ELC_DIE_PI]</t>
+          <t>Hybrid diesel-electric [ELC_DIE_HYB]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1171,37 +1171,37 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="G13" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H13" t="n">
-        <v>170</v>
+        <v>518</v>
       </c>
       <c r="I13" t="n">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="J13" t="n">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="K13" t="n">
-        <v>40</v>
+        <v>1008</v>
       </c>
       <c r="L13" t="n">
-        <v>45</v>
+        <v>4112</v>
       </c>
       <c r="M13" t="n">
-        <v>439</v>
+        <v>7848</v>
       </c>
       <c r="N13" t="n">
-        <v>1026</v>
+        <v>12519</v>
       </c>
       <c r="O13" t="n">
-        <v>802</v>
+        <v>12620</v>
       </c>
       <c r="P13" t="n">
-        <v>694</v>
+        <v>13925</v>
       </c>
     </row>
     <row r="14">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hydrogen and fuel cells [HYD_FCELL]</t>
+          <t>Plug-in hybrid diesel-electric [ELC_DIE_PI]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1229,37 +1229,37 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="L14" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="M14" t="n">
-        <v>14</v>
+        <v>439</v>
       </c>
       <c r="N14" t="n">
-        <v>14</v>
+        <v>1026</v>
       </c>
       <c r="O14" t="n">
-        <v>14</v>
+        <v>802</v>
       </c>
       <c r="P14" t="n">
-        <v>10</v>
+        <v>694</v>
       </c>
     </row>
     <row r="15">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bioethanol [BIOETH]</t>
+          <t>Hydrogen and fuel cells [HYD_FCELL]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1286,26 +1286,38 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7</v>
+      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1324,7 +1336,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Biodiesel [BIODIE]</t>
+          <t>Bioethanol [BIOETH]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1370,7 +1382,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bi-fuel [BIFUEL]</t>
+          <t>Biodiesel [BIODIE]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1378,38 +1390,26 @@
           <t>AT</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>176</v>
-      </c>
-      <c r="G17" t="n">
-        <v>511</v>
-      </c>
-      <c r="H17" t="n">
-        <v>536</v>
-      </c>
-      <c r="I17" t="n">
-        <v>367</v>
-      </c>
-      <c r="J17" t="n">
-        <v>321</v>
-      </c>
-      <c r="K17" t="n">
-        <v>532</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1428,45 +1428,103 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Bi-fuel [BIFUEL]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>176</v>
+      </c>
+      <c r="G18" t="n">
+        <v>511</v>
+      </c>
+      <c r="H18" t="n">
+        <v>536</v>
+      </c>
+      <c r="I18" t="n">
+        <v>367</v>
+      </c>
+      <c r="J18" t="n">
+        <v>321</v>
+      </c>
+      <c r="K18" t="n">
+        <v>532</v>
+      </c>
+      <c r="L18" t="n">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>21</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16</v>
+      </c>
+      <c r="O18" t="n">
+        <v>12</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>Other [OTH]</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>AT</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>0</v>
       </c>
     </row>
